--- a/v0.9/ValueSet-hcx-claim-sub-types.xlsx
+++ b/v0.9/ValueSet-hcx-claim-sub-types.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://staging-hcx.swasth.app/hapi-fhir/fhir/ValueSet/hcx-claim-sub-types</t>
+    <t>https://ig.hcxprotocol.io/v0.9/ValueSet-hcx-claim-sub-types.html</t>
   </si>
   <si>
     <t>Version</t>
